--- a/Tables/Table_4.xlsx
+++ b/Tables/Table_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collinoconnor/Desktop/Rprojects/Ap_variant_landscape/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD307346-3029-C343-BE49-E55D35B45887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1759E64-2139-DB4B-A272-268207B0FDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="600" windowWidth="12660" windowHeight="16420" xr2:uid="{40709277-05FE-3345-906E-1C2B969B8CE3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" xr2:uid="{40709277-05FE-3345-906E-1C2B969B8CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="B4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,11 +651,11 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.93400000000000005</v>
+        <v>-1.8029999999999999</v>
       </c>
       <c r="F7" s="7">
         <f>EXP(E7)</f>
-        <v>0.39297864775542996</v>
+        <v>0.16480373465863135</v>
       </c>
       <c r="G7" s="11">
         <v>-5.0566000000000004</v>
@@ -684,11 +684,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>-1.8029999999999999</v>
+        <v>-0.93400000000000005</v>
       </c>
       <c r="F10" s="7">
         <f>EXP(E10)</f>
-        <v>0.16480373465863135</v>
+        <v>0.39297864775542996</v>
       </c>
       <c r="G10" s="11">
         <v>-2.8295119999999998</v>

--- a/Tables/Table_4.xlsx
+++ b/Tables/Table_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collinoconnor/Desktop/Rprojects/Ap_variant_landscape/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1759E64-2139-DB4B-A272-268207B0FDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8AB7BA-414E-9543-BFB0-20C155E339C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" xr2:uid="{40709277-05FE-3345-906E-1C2B969B8CE3}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="20020" xr2:uid="{40709277-05FE-3345-906E-1C2B969B8CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -188,9 +188,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +198,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E91883E-4180-8A4E-8983-33E952A6958C}">
-  <dimension ref="B4:I10"/>
+  <dimension ref="B4:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G10" sqref="C5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,8 +605,7 @@
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="7.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
@@ -641,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
@@ -651,51 +649,55 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>-1.8029999999999999</v>
-      </c>
-      <c r="F7" s="7">
+        <v>-1.8039890000000001</v>
+      </c>
+      <c r="F7" s="10">
         <f>EXP(E7)</f>
-        <v>0.16480373465863135</v>
-      </c>
-      <c r="G7" s="11">
-        <v>-5.0566000000000004</v>
-      </c>
-      <c r="I7" s="11">
-        <v>5.1299999999999998E-2</v>
-      </c>
+        <v>0.16464082433748656</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-5.0566409999999999</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>-0.93400000000000005</v>
-      </c>
-      <c r="F10" s="7">
+        <v>-0.93405800000000005</v>
+      </c>
+      <c r="F10" s="10">
         <f>EXP(E10)</f>
-        <v>0.39297864775542996</v>
-      </c>
-      <c r="G10" s="11">
+        <v>0.39295585565483748</v>
+      </c>
+      <c r="G10" s="10">
         <v>-2.8295119999999998</v>
       </c>
-      <c r="I10" s="11">
-        <v>4.6100000000000004E-3</v>
-      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
